--- a/results/nonc_exposure.xlsx
+++ b/results/nonc_exposure.xlsx
@@ -8,21 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grbi\PycharmProjects\cftc_neu\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73DD92C-A752-4B10-B819-83171C1D0CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1604A8A-B468-4648-AD22-8142973F7919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2_and_scalingFactor" sheetId="1" r:id="rId1"/>
     <sheet name="insample_scores" sheetId="2" r:id="rId2"/>
     <sheet name="betas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>key</t>
   </si>
@@ -188,6 +198,21 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Live Stock</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,18 +266,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,15 +627,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +648,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -623,8 +665,11 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -637,8 +682,11 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -651,8 +699,11 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -665,8 +716,11 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -679,8 +733,11 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -693,8 +750,11 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -707,8 +767,11 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -721,8 +784,11 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -735,8 +801,11 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -749,8 +818,11 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -763,8 +835,11 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -777,8 +852,11 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -791,8 +869,11 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -805,8 +886,11 @@
       <c r="D15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -819,8 +903,11 @@
       <c r="D16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -833,8 +920,11 @@
       <c r="D17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -847,8 +937,11 @@
       <c r="D18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -861,8 +954,11 @@
       <c r="D19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -875,8 +971,11 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -889,8 +988,11 @@
       <c r="D21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -903,8 +1005,11 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -917,8 +1022,11 @@
       <c r="D23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -930,6 +1038,9 @@
       </c>
       <c r="D24" t="s">
         <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -944,9 +1055,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -954,7 +1065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,7 +1076,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1087,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,7 +1098,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1109,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1120,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1131,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1142,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1153,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1053,7 +1164,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1175,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1186,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1197,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1208,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1219,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1119,7 +1230,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1241,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1252,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1152,7 +1263,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1274,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1174,7 +1285,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1296,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1307,7 @@
         <v>0.26142189234747681</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1219,9 +1330,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1366,7 +1477,7 @@
         <v>285133543.81305289</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1440,7 +1551,7 @@
         <v>193177965.716636</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1514,7 +1625,7 @@
         <v>193167632.42402631</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1588,7 +1699,7 @@
         <v>193161875.27665579</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1662,7 +1773,7 @@
         <v>193156417.3312442</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1736,7 +1847,7 @@
         <v>193150630.9334366</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1810,7 +1921,7 @@
         <v>193144746.05882889</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1884,7 +1995,7 @@
         <v>193140086.39023179</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1958,7 +2069,7 @@
         <v>193135335.34786671</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2032,7 +2143,7 @@
         <v>193129994.13369611</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2106,7 +2217,7 @@
         <v>193125039.3045325</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2180,7 +2291,7 @@
         <v>193120653.90852481</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2254,7 +2365,7 @@
         <v>193116574.81686041</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2328,7 +2439,7 @@
         <v>193112408.61764231</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2402,7 +2513,7 @@
         <v>193108420.96651971</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2476,7 +2587,7 @@
         <v>193104211.2721293</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2550,7 +2661,7 @@
         <v>193099950.9718619</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2624,7 +2735,7 @@
         <v>193095670.80457261</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2698,7 +2809,7 @@
         <v>193092055.1562129</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2772,7 +2883,7 @@
         <v>193088548.2473734</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2846,7 +2957,7 @@
         <v>193085398.17932379</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2920,7 +3031,7 @@
         <v>193082529.51744261</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2994,7 +3105,7 @@
         <v>193079940.06924421</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3068,7 +3179,7 @@
         <v>193077165.3622607</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3142,7 +3253,7 @@
         <v>193074295.2566852</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3216,7 +3327,7 @@
         <v>193071500.34107879</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3290,7 +3401,7 @@
         <v>193068530.93026739</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3364,7 +3475,7 @@
         <v>193065421.4394339</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3438,7 +3549,7 @@
         <v>193062519.50595361</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3512,7 +3623,7 @@
         <v>193059836.8248693</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3586,7 +3697,7 @@
         <v>193057284.48900741</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3660,7 +3771,7 @@
         <v>193054556.78040421</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3734,7 +3845,7 @@
         <v>193051890.3295486</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3808,7 +3919,7 @@
         <v>193049186.0975233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3882,7 +3993,7 @@
         <v>193046352.71194491</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3956,7 +4067,7 @@
         <v>193043376.01975161</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4030,7 +4141,7 @@
         <v>193040484.19758639</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4104,7 +4215,7 @@
         <v>193037566.72648329</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4178,7 +4289,7 @@
         <v>193034494.48746559</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4252,7 +4363,7 @@
         <v>193031560.72146961</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4326,7 +4437,7 @@
         <v>193028998.66194159</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4400,7 +4511,7 @@
         <v>193026618.15975529</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4474,7 +4585,7 @@
         <v>193024231.47280729</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4548,7 +4659,7 @@
         <v>193022051.20241061</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4622,7 +4733,7 @@
         <v>193020005.14795601</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4696,7 +4807,7 @@
         <v>193017860.68391311</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4770,7 +4881,7 @@
         <v>193015697.54366371</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4844,7 +4955,7 @@
         <v>193013910.28449729</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4918,7 +5029,7 @@
         <v>193011871.46928659</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4992,7 +5103,7 @@
         <v>193009801.3305527</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5066,7 +5177,7 @@
         <v>193007537.82891339</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5140,7 +5251,7 @@
         <v>193005013.60047159</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5214,7 +5325,7 @@
         <v>193002153.66530111</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5288,7 +5399,7 @@
         <v>192999460.24008921</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5362,7 +5473,7 @@
         <v>192996642.08446389</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5436,7 +5547,7 @@
         <v>192993777.60853279</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5510,7 +5621,7 @@
         <v>192991058.15351179</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5584,7 +5695,7 @@
         <v>192988288.23115361</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5658,7 +5769,7 @@
         <v>192985380.43735129</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5732,7 +5843,7 @@
         <v>192982677.1137118</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5806,7 +5917,7 @@
         <v>192980258.58674619</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5880,7 +5991,7 @@
         <v>192978113.01931641</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5954,7 +6065,7 @@
         <v>192976219.66339031</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6028,7 +6139,7 @@
         <v>192974438.53508469</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6102,7 +6213,7 @@
         <v>192972488.83787611</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6176,7 +6287,7 @@
         <v>192970467.52870539</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6250,7 +6361,7 @@
         <v>192968276.22465119</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6324,7 +6435,7 @@
         <v>192966067.54380211</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6398,7 +6509,7 @@
         <v>192963902.35068089</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6472,7 +6583,7 @@
         <v>192961497.87867299</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6546,7 +6657,7 @@
         <v>192959004.30670369</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6620,7 +6731,7 @@
         <v>192956571.51044789</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6694,7 +6805,7 @@
         <v>192954177.3135384</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6768,7 +6879,7 @@
         <v>192951689.79186329</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6842,7 +6953,7 @@
         <v>192949582.9134548</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6916,7 +7027,7 @@
         <v>192947576.54063559</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6990,7 +7101,7 @@
         <v>192945424.87469631</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7064,7 +7175,7 @@
         <v>192943250.2247521</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7138,7 +7249,7 @@
         <v>192941018.2033647</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7212,7 +7323,7 @@
         <v>192938803.04603359</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7286,7 +7397,7 @@
         <v>192936737.91152039</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7360,7 +7471,7 @@
         <v>192934865.5626761</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7434,7 +7545,7 @@
         <v>192933191.05670229</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7508,7 +7619,7 @@
         <v>192931748.4244265</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7582,7 +7693,7 @@
         <v>192930219.50623149</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7656,7 +7767,7 @@
         <v>192928605.20168671</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7730,7 +7841,7 @@
         <v>192926917.27981541</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7804,7 +7915,7 @@
         <v>192925218.36611751</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7878,7 +7989,7 @@
         <v>192923577.25313109</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7952,7 +8063,7 @@
         <v>192922139.04490951</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8026,7 +8137,7 @@
         <v>192920687.89215329</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8100,7 +8211,7 @@
         <v>192919403.45340589</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8174,7 +8285,7 @@
         <v>192918005.1540691</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8248,7 +8359,7 @@
         <v>192916332.87016961</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8322,7 +8433,7 @@
         <v>192914653.38023719</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8396,7 +8507,7 @@
         <v>192913024.92990789</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8470,7 +8581,7 @@
         <v>192911514.48754659</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8544,7 +8655,7 @@
         <v>192909816.08035889</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8618,7 +8729,7 @@
         <v>192908201.81859499</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8692,7 +8803,7 @@
         <v>192906329.1361289</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8766,7 +8877,7 @@
         <v>192904107.6878643</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8840,7 +8951,7 @@
         <v>192901789.27009889</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8914,7 +9025,7 @@
         <v>192899602.57145351</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8988,7 +9099,7 @@
         <v>192897583.91553491</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9062,7 +9173,7 @@
         <v>192895631.04908001</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9136,7 +9247,7 @@
         <v>192893897.37712511</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9210,7 +9321,7 @@
         <v>192891987.51387209</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9284,7 +9395,7 @@
         <v>192889917.59047249</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9358,7 +9469,7 @@
         <v>192887904.34529889</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9432,7 +9543,7 @@
         <v>192886041.62191221</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9506,7 +9617,7 @@
         <v>192884089.21537629</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9580,7 +9691,7 @@
         <v>192882097.2150946</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9654,7 +9765,7 @@
         <v>192880444.0985252</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9728,7 +9839,7 @@
         <v>192878937.2671662</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9802,7 +9913,7 @@
         <v>192877300.0961248</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9876,7 +9987,7 @@
         <v>192875900.78156811</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9950,7 +10061,7 @@
         <v>192874530.3171809</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10024,7 +10135,7 @@
         <v>192872831.71532911</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10098,7 +10209,7 @@
         <v>192870917.00448701</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10172,7 +10283,7 @@
         <v>192869044.14192969</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10246,7 +10357,7 @@
         <v>192867030.63685879</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10320,7 +10431,7 @@
         <v>192865093.931113</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10394,7 +10505,7 @@
         <v>192863351.6121155</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10468,7 +10579,7 @@
         <v>192861471.5028846</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10542,7 +10653,7 @@
         <v>192859622.47024119</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -10616,7 +10727,7 @@
         <v>192857709.96458721</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -10690,7 +10801,7 @@
         <v>192855815.83387169</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -10764,7 +10875,7 @@
         <v>192853754.414859</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10838,7 +10949,7 @@
         <v>192851802.2241815</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -10912,7 +11023,7 @@
         <v>192849787.99441561</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10986,7 +11097,7 @@
         <v>192847754.9121879</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11060,7 +11171,7 @@
         <v>192845583.53742409</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11134,7 +11245,7 @@
         <v>192843470.25064009</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11208,7 +11319,7 @@
         <v>192841368.53699681</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11282,7 +11393,7 @@
         <v>192839253.95812991</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11356,7 +11467,7 @@
         <v>192837367.7867882</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11430,7 +11541,7 @@
         <v>192835542.89060351</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11504,7 +11615,7 @@
         <v>192833715.5928016</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11578,7 +11689,7 @@
         <v>192831879.5220944</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11652,7 +11763,7 @@
         <v>192830000.37613809</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -11726,7 +11837,7 @@
         <v>192827997.15391979</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -11800,7 +11911,7 @@
         <v>192825893.7058053</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -11874,7 +11985,7 @@
         <v>192823688.06689289</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -11948,7 +12059,7 @@
         <v>192821533.91233429</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12022,7 +12133,7 @@
         <v>192819346.28252521</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12096,7 +12207,7 @@
         <v>192816941.24190471</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12170,7 +12281,7 @@
         <v>192814717.46141559</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12244,7 +12355,7 @@
         <v>192812707.75174159</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12318,7 +12429,7 @@
         <v>192810469.0964022</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12392,7 +12503,7 @@
         <v>192808298.31647599</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12466,7 +12577,7 @@
         <v>192806295.90183091</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12540,7 +12651,7 @@
         <v>192804357.00675309</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -12614,7 +12725,7 @@
         <v>192802313.4911544</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -12688,7 +12799,7 @@
         <v>192800474.38947651</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -12762,7 +12873,7 @@
         <v>192798718.58854681</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -12836,7 +12947,7 @@
         <v>192797188.8550097</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -12910,7 +13021,7 @@
         <v>192795557.4158029</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -12984,7 +13095,7 @@
         <v>192794044.00794181</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -13058,7 +13169,7 @@
         <v>192792536.9711282</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -13132,7 +13243,7 @@
         <v>192791028.2450217</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -13206,7 +13317,7 @@
         <v>192789261.82982591</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -13280,7 +13391,7 @@
         <v>192787282.6937018</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -13354,7 +13465,7 @@
         <v>192785341.0413765</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13428,7 +13539,7 @@
         <v>192783149.11079359</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13502,7 +13613,7 @@
         <v>192781054.7824707</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13576,7 +13687,7 @@
         <v>192778976.77605319</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13650,7 +13761,7 @@
         <v>192777331.9092997</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13724,7 +13835,7 @@
         <v>192775625.68428159</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13798,7 +13909,7 @@
         <v>192774044.89501849</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13872,7 +13983,7 @@
         <v>192772440.1000841</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13946,7 +14057,7 @@
         <v>192770926.71026531</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -14020,7 +14131,7 @@
         <v>192769211.16661599</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -14094,7 +14205,7 @@
         <v>192767374.25142899</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -14168,7 +14279,7 @@
         <v>192765665.3191874</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -14242,7 +14353,7 @@
         <v>192763894.95413589</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -14316,7 +14427,7 @@
         <v>192762200.41391051</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -14390,7 +14501,7 @@
         <v>192760545.23993221</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -14464,7 +14575,7 @@
         <v>192758835.98402771</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -14538,7 +14649,7 @@
         <v>192757012.37003139</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -14612,7 +14723,7 @@
         <v>192755087.1870949</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -14686,7 +14797,7 @@
         <v>192752907.30069581</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -14760,7 +14871,7 @@
         <v>192750802.84600589</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -14834,7 +14945,7 @@
         <v>192748887.68194711</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -14908,7 +15019,7 @@
         <v>192746853.59770119</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -14982,7 +15093,7 @@
         <v>192744963.36548641</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -15056,7 +15167,7 @@
         <v>192742972.81586531</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -15130,7 +15241,7 @@
         <v>192741167.656905</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -15204,7 +15315,7 @@
         <v>192739241.4068912</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -15278,7 +15389,7 @@
         <v>192737416.9077417</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -15352,7 +15463,7 @@
         <v>192735656.5067229</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -15426,7 +15537,7 @@
         <v>192734216.80737171</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -15500,7 +15611,7 @@
         <v>192732712.29726321</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -15574,7 +15685,7 @@
         <v>192731165.3389748</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -15648,7 +15759,7 @@
         <v>192729683.51326501</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -15722,7 +15833,7 @@
         <v>192728090.35740101</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -15796,7 +15907,7 @@
         <v>192726526.22152889</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -15870,7 +15981,7 @@
         <v>192724858.57600921</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -15944,7 +16055,7 @@
         <v>192723427.17951429</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -16018,7 +16129,7 @@
         <v>192722065.34128231</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -16092,7 +16203,7 @@
         <v>192720539.70391199</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -16166,7 +16277,7 @@
         <v>192719173.55668631</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -16240,7 +16351,7 @@
         <v>192717794.60550809</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -16314,7 +16425,7 @@
         <v>192716433.17661011</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -16388,7 +16499,7 @@
         <v>192714778.07559639</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -16462,7 +16573,7 @@
         <v>192713294.7980006</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -16536,7 +16647,7 @@
         <v>192711795.49475351</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -16610,7 +16721,7 @@
         <v>192710209.59874979</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -16684,7 +16795,7 @@
         <v>192708475.27471489</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -16758,7 +16869,7 @@
         <v>192706872.6980899</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -16832,7 +16943,7 @@
         <v>192705432.1722818</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -16906,7 +17017,7 @@
         <v>192703831.16824409</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -16980,7 +17091,7 @@
         <v>192702309.11111501</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -17054,7 +17165,7 @@
         <v>192700824.46911171</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -17128,7 +17239,7 @@
         <v>192699518.3757773</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -17202,7 +17313,7 @@
         <v>192697944.65091321</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -17276,7 +17387,7 @@
         <v>192696417.0046683</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -17350,7 +17461,7 @@
         <v>192694789.0301275</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -17424,7 +17535,7 @@
         <v>192693103.84039831</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -17498,7 +17609,7 @@
         <v>192691101.11496389</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -17572,7 +17683,7 @@
         <v>192689142.99683851</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -17646,7 +17757,7 @@
         <v>192687154.20880261</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -17720,7 +17831,7 @@
         <v>192685288.4747217</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -17794,7 +17905,7 @@
         <v>192683487.38594669</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -17868,7 +17979,7 @@
         <v>192682033.2003291</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -17942,7 +18053,7 @@
         <v>192680665.76140779</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -18016,7 +18127,7 @@
         <v>192679289.5319294</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -18090,7 +18201,7 @@
         <v>192677738.10698211</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -18164,7 +18275,7 @@
         <v>192676099.09201199</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -18238,7 +18349,7 @@
         <v>192674498.20579809</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -18312,7 +18423,7 @@
         <v>192673039.46225539</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -18386,7 +18497,7 @@
         <v>192671644.42914349</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -18460,7 +18571,7 @@
         <v>192670430.71387371</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -18534,7 +18645,7 @@
         <v>192669244.70227531</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -18608,7 +18719,7 @@
         <v>192667873.86026591</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -18682,7 +18793,7 @@
         <v>192666406.58495241</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -18756,7 +18867,7 @@
         <v>192664934.5312534</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -18830,7 +18941,7 @@
         <v>192663448.7537716</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -18904,7 +19015,7 @@
         <v>192662037.5169012</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -18978,7 +19089,7 @@
         <v>192660769.4891291</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -19052,7 +19163,7 @@
         <v>192659676.87862259</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -19126,7 +19237,7 @@
         <v>192658563.33779809</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -19200,7 +19311,7 @@
         <v>192657305.2288481</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -19274,7 +19385,7 @@
         <v>192656070.98139179</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -19348,7 +19459,7 @@
         <v>192654829.70914349</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -19422,7 +19533,7 @@
         <v>192653517.31468651</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -19496,7 +19607,7 @@
         <v>192652176.47578919</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -19570,7 +19681,7 @@
         <v>192650876.52441499</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -19644,7 +19755,7 @@
         <v>192649899.0469341</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -19718,7 +19829,7 @@
         <v>192649211.49412891</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -19792,7 +19903,7 @@
         <v>192648671.550872</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
